--- a/output/MOMENTUM/rebalance/rebalance_20251031.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20251031.xlsx
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03144626187110927</v>
+        <v>0.03144620742125871</v>
       </c>
       <c r="C4" t="n">
         <v>0.02053595548111729</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01091030638999198</v>
+        <v>-0.01091025194014141</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6351,13 +6351,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03445442540678102</v>
+        <v>0.03445434032872628</v>
       </c>
       <c r="C7" t="n">
         <v>0.02053595548111729</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01391846992566372</v>
+        <v>-0.01391838484760899</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6393,13 +6393,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03197352403434667</v>
+        <v>0.0319734666819254</v>
       </c>
       <c r="C9" t="n">
         <v>0.02053595548111729</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01143756855322937</v>
+        <v>-0.0114375112008081</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6435,13 +6435,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02652533112798779</v>
+        <v>0.02652534559024639</v>
       </c>
       <c r="C11" t="n">
         <v>0.02053595548111729</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.005989375646870493</v>
+        <v>-0.005989390109129099</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6603,13 +6603,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02410484732443683</v>
+        <v>0.02410484585949285</v>
       </c>
       <c r="C19" t="n">
         <v>0.02022799719055594</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.003876850133880883</v>
+        <v>-0.003876848668936908</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6624,13 +6624,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02358022041982413</v>
+        <v>0.02358027539043028</v>
       </c>
       <c r="C20" t="n">
         <v>0.02021719163650116</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.00336302878332297</v>
+        <v>-0.00336308375392912</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6666,13 +6666,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02126163394247732</v>
+        <v>0.02126164472185056</v>
       </c>
       <c r="C22" t="n">
         <v>0.02016316386622724</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.00109847007625008</v>
+        <v>-0.001098480855623321</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6708,13 +6708,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02531034791236172</v>
+        <v>0.02531041457222261</v>
       </c>
       <c r="C24" t="n">
         <v>0.02009833054189854</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.00521201737046318</v>
+        <v>-0.005212084030324075</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6729,13 +6729,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02239709814021302</v>
+        <v>0.02239705849006858</v>
       </c>
       <c r="C25" t="n">
         <v>0.02006591387973418</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.002331184260478836</v>
+        <v>-0.002331144610334394</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6771,13 +6771,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02518804503535017</v>
+        <v>0.02518797097051486</v>
       </c>
       <c r="C27" t="n">
         <v>0.02001188610946026</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.00517615892588991</v>
+        <v>-0.005176084861054597</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02602199325328119</v>
+        <v>0.0260219856001585</v>
       </c>
       <c r="C28" t="n">
         <v>0.01999027500135069</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.006031718251930496</v>
+        <v>-0.006031710598807808</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02239834165786598</v>
+        <v>0.02239833930673094</v>
       </c>
       <c r="C33" t="n">
         <v>0.01987141390674807</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.002526927751117909</v>
+        <v>-0.002526925399982869</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6918,13 +6918,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02116152147422642</v>
+        <v>0.02116150370153586</v>
       </c>
       <c r="C34" t="n">
         <v>0.01986060835269329</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.001300913121533132</v>
+        <v>-0.001300895348842569</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -7044,13 +7044,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01971375398817721</v>
+        <v>0.0197137957128423</v>
       </c>
       <c r="C40" t="n">
         <v>0.01963369171754282</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.006227063439564e-05</v>
+        <v>-8.01039952994867e-05</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02167635329364177</v>
+        <v>0.02167634117502253</v>
       </c>
       <c r="C43" t="n">
         <v>0.01953644173104976</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.002139911562592012</v>
+        <v>-0.002139899443972776</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7128,13 +7128,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02206560931879937</v>
+        <v>0.02206554434636626</v>
       </c>
       <c r="C44" t="n">
         <v>0.01952563617699498</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002539973141804392</v>
+        <v>-0.002539908169371285</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7212,13 +7212,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02095881660087762</v>
+        <v>0.02095881728074224</v>
       </c>
       <c r="C48" t="n">
         <v>0.01933113620400886</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.001627680396868756</v>
+        <v>-0.001627681076733382</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7233,13 +7233,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02194636977936719</v>
+        <v>0.02194639940039286</v>
       </c>
       <c r="C49" t="n">
         <v>0.01929871954184451</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.002647650237522683</v>
+        <v>-0.002647679858548354</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7275,13 +7275,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02065104964041007</v>
+        <v>0.02065104208674388</v>
       </c>
       <c r="C51" t="n">
         <v>0.01922308066346102</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.001427968976949055</v>
+        <v>-0.001427961423282866</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7296,13 +7296,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01994846203116135</v>
+        <v>0.01994844207874176</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01994846203116135</v>
+        <v>-0.01994844207874176</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7317,13 +7317,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01677183285002964</v>
+        <v>0.0167718310459838</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01677183285002964</v>
+        <v>-0.0167718310459838</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7338,13 +7338,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01664644458135306</v>
+        <v>0.01664645458057469</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01664644458135306</v>
+        <v>-0.01664645458057469</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7359,13 +7359,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01303673699003556</v>
+        <v>0.01303678740212545</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01303673699003556</v>
+        <v>-0.01303678740212545</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02043051211468335</v>
+        <v>0.02043050511166672</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02043051211468335</v>
+        <v>-0.02043050511166672</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7401,13 +7401,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01740835917791369</v>
+        <v>0.01740834294866244</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01740835917791369</v>
+        <v>-0.01740834294866244</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01987167835847302</v>
+        <v>0.01987171847678732</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01987167835847302</v>
+        <v>-0.01987171847678732</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7443,13 +7443,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01628206518621493</v>
+        <v>0.0162820739719504</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01628206518621493</v>
+        <v>-0.0162820739719504</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01581807106241213</v>
+        <v>0.0158180832177993</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01581807106241213</v>
+        <v>-0.0158180832177993</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7485,13 +7485,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01739773890110969</v>
+        <v>0.01739772223665077</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01739773890110969</v>
+        <v>-0.01739772223665077</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7506,13 +7506,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01504740125683001</v>
+        <v>0.01504740288150007</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01504740125683001</v>
+        <v>-0.01504740288150007</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7527,13 +7527,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01738262679840189</v>
+        <v>0.0173826364287079</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01738262679840189</v>
+        <v>-0.0173826364287079</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7548,13 +7548,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01658853769981346</v>
+        <v>0.01658855197506812</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01658853769981346</v>
+        <v>-0.01658855197506812</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7569,13 +7569,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01598855353972639</v>
+        <v>0.01598857388800155</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01598855353972639</v>
+        <v>-0.01598857388800155</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7590,13 +7590,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01780737651233121</v>
+        <v>0.01780737558528582</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01780737651233121</v>
+        <v>-0.01780737558528582</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7611,13 +7611,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01779256578365912</v>
+        <v>0.01779257301561182</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01779256578365912</v>
+        <v>-0.01779257301561182</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01723650833768886</v>
+        <v>0.01723651799238336</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01723650833768886</v>
+        <v>-0.01723651799238336</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7653,13 +7653,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01773246359532216</v>
+        <v>0.01773245582698483</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01773246359532216</v>
+        <v>-0.01773245582698483</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7674,13 +7674,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01786241687258005</v>
+        <v>0.0178624315145533</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01786241687258005</v>
+        <v>-0.0178624315145533</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7695,13 +7695,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01582671091474928</v>
+        <v>0.01582671110795298</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01582671091474928</v>
+        <v>-0.01582671110795298</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7716,13 +7716,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01774830624600815</v>
+        <v>0.01774829283189171</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01774830624600815</v>
+        <v>-0.01774829283189171</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7737,13 +7737,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01806849804328352</v>
+        <v>0.01806853118067492</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01806849804328352</v>
+        <v>-0.01806853118067492</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7758,13 +7758,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01760055646770287</v>
+        <v>0.01760057223401173</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01760055646770287</v>
+        <v>-0.01760057223401173</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7779,13 +7779,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01688399824109281</v>
+        <v>0.01688398614449566</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01688399824109281</v>
+        <v>-0.01688398614449566</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7800,13 +7800,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01708371888754917</v>
+        <v>0.01708371904669129</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01708371888754917</v>
+        <v>-0.01708371904669129</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7821,13 +7821,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0191377018569219</v>
+        <v>0.01913770780456306</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.0191377018569219</v>
+        <v>-0.01913770780456306</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7842,13 +7842,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01477761833199762</v>
+        <v>0.01477761914444841</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01477761833199762</v>
+        <v>-0.01477761914444841</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7863,13 +7863,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0159653274883962</v>
+        <v>0.01596534666790325</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.0159653274883962</v>
+        <v>-0.01596534666790325</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7884,13 +7884,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01855481103631391</v>
+        <v>0.01855483501555552</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01855481103631391</v>
+        <v>-0.01855483501555552</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7905,13 +7905,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01694849391285408</v>
+        <v>0.01694850069047277</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01694849391285408</v>
+        <v>-0.01694850069047277</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7926,13 +7926,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02151836270185615</v>
+        <v>0.02151835931502746</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02151836270185615</v>
+        <v>-0.02151835931502746</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20251031.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20251031.xlsx
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03144620742125871</v>
+        <v>0.0314472818907133</v>
       </c>
       <c r="C4" t="n">
         <v>0.02053595548111729</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01091025194014141</v>
+        <v>-0.010911326409596</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6351,13 +6351,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03445434032872628</v>
+        <v>0.03445554300191853</v>
       </c>
       <c r="C7" t="n">
         <v>0.02053595548111729</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01391838484760899</v>
+        <v>-0.01391958752080123</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6393,13 +6393,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0319734666819254</v>
+        <v>0.03197456115670666</v>
       </c>
       <c r="C9" t="n">
         <v>0.02053595548111729</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0114375112008081</v>
+        <v>-0.01143860567558937</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6435,13 +6435,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02652534559024639</v>
+        <v>0.02652619152779825</v>
       </c>
       <c r="C11" t="n">
         <v>0.02053595548111729</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.005989390109129099</v>
+        <v>-0.005990236046680961</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6603,13 +6603,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02410484585949285</v>
+        <v>0.02410562921122909</v>
       </c>
       <c r="C19" t="n">
         <v>0.02022799719055594</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.003876848668936908</v>
+        <v>-0.003877632020673146</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6624,13 +6624,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02358027539043028</v>
+        <v>0.02358098528934007</v>
       </c>
       <c r="C20" t="n">
         <v>0.02021719163650116</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.00336308375392912</v>
+        <v>-0.003363793652838905</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6666,13 +6666,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02126164472185056</v>
+        <v>0.02126232360420957</v>
       </c>
       <c r="C22" t="n">
         <v>0.02016316386622724</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.001098480855623321</v>
+        <v>-0.001099159737982334</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6708,13 +6708,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02531041457222261</v>
+        <v>0.0253111689018695</v>
       </c>
       <c r="C24" t="n">
         <v>0.02009833054189854</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.005212084030324075</v>
+        <v>-0.005212838359970967</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6729,13 +6729,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02239705849006858</v>
+        <v>0.02239782463289663</v>
       </c>
       <c r="C25" t="n">
         <v>0.02006591387973418</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.002331144610334394</v>
+        <v>-0.002331910753162452</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6771,13 +6771,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02518797097051486</v>
+        <v>0.0251888620577304</v>
       </c>
       <c r="C27" t="n">
         <v>0.02001188610946026</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.005176084861054597</v>
+        <v>-0.005176975948270133</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0260219856001585</v>
+        <v>0.02602283732636571</v>
       </c>
       <c r="C28" t="n">
         <v>0.01999027500135069</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.006031710598807808</v>
+        <v>-0.006032562325015017</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02239833930673094</v>
+        <v>0.02239906819088545</v>
       </c>
       <c r="C33" t="n">
         <v>0.01987141390674807</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.002526925399982869</v>
+        <v>-0.002527654284137388</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6918,13 +6918,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02116150370153586</v>
+        <v>0.02116220788861943</v>
       </c>
       <c r="C34" t="n">
         <v>0.01986060835269329</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.001300895348842569</v>
+        <v>-0.001301599535926141</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -7044,13 +7044,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0197137957128423</v>
+        <v>0.01971439344146483</v>
       </c>
       <c r="C40" t="n">
         <v>0.01963369171754282</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.01039952994867e-05</v>
+        <v>-8.070172392201508e-05</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02167634117502253</v>
+        <v>0.02167705640758879</v>
       </c>
       <c r="C43" t="n">
         <v>0.01953644173104976</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.002139899443972776</v>
+        <v>-0.002140614676539032</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7128,13 +7128,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02206554434636626</v>
+        <v>0.02206632505900952</v>
       </c>
       <c r="C44" t="n">
         <v>0.01952563617699498</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002539908169371285</v>
+        <v>-0.002540688882014541</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7212,13 +7212,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02095881728074224</v>
+        <v>0.02095949644015064</v>
       </c>
       <c r="C48" t="n">
         <v>0.01933113620400886</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.001627681076733382</v>
+        <v>-0.001628360236141782</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7233,13 +7233,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02194639940039286</v>
+        <v>0.02194708165181499</v>
       </c>
       <c r="C49" t="n">
         <v>0.01929871954184451</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.002647679858548354</v>
+        <v>-0.002648362109970478</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7275,13 +7275,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02065104208674388</v>
+        <v>0.02065171949667354</v>
       </c>
       <c r="C51" t="n">
         <v>0.01922308066346102</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.001427961423282866</v>
+        <v>-0.001428638833212519</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7296,13 +7296,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01994844207874176</v>
+        <v>0.01994910909765292</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01994844207874176</v>
+        <v>-0.01994910909765292</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7317,13 +7317,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0167718310459838</v>
+        <v>0.01677237687648252</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0167718310459838</v>
+        <v>-0.01677237687648252</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7338,13 +7338,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01664645458057469</v>
+        <v>0.01664698454059782</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01664645458057469</v>
+        <v>-0.01664698454059782</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7359,13 +7359,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01303678740212545</v>
+        <v>0.0130371598615157</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01303678740212545</v>
+        <v>-0.0130371598615157</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02043050511166672</v>
+        <v>0.02043117481739067</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02043050511166672</v>
+        <v>-0.02043117481739067</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7401,13 +7401,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01740834294866244</v>
+        <v>0.01740892385131456</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01740834294866244</v>
+        <v>-0.01740892385131456</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01987171847678732</v>
+        <v>0.01987232293433941</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01987171847678732</v>
+        <v>-0.01987232293433941</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7443,13 +7443,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0162820739719504</v>
+        <v>0.0162825933261176</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.0162820739719504</v>
+        <v>-0.0162825933261176</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0158180832177993</v>
+        <v>0.0158185841517786</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.0158180832177993</v>
+        <v>-0.0158185841517786</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7485,13 +7485,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01739772223665077</v>
+        <v>0.01739830323002158</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01739772223665077</v>
+        <v>-0.01739830323002158</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7506,13 +7506,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01504740288150007</v>
+        <v>0.01504788934804844</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01504740288150007</v>
+        <v>-0.01504788934804844</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7527,13 +7527,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0173826364287079</v>
+        <v>0.01738319063712385</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.0173826364287079</v>
+        <v>-0.01738319063712385</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7548,13 +7548,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01658855197506812</v>
+        <v>0.01658907578073784</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01658855197506812</v>
+        <v>-0.01658907578073784</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7569,13 +7569,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01598857388800155</v>
+        <v>0.01598907215901784</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01598857388800155</v>
+        <v>-0.01598907215901784</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7590,13 +7590,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01780737558528582</v>
+        <v>0.01780795412862192</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01780737558528582</v>
+        <v>-0.01780795412862192</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7611,13 +7611,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01779257301561182</v>
+        <v>0.01779314291953555</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01779257301561182</v>
+        <v>-0.01779314291953555</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01723651799238336</v>
+        <v>0.01723706743677928</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01723651799238336</v>
+        <v>-0.01723706743677928</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7653,13 +7653,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01773245582698483</v>
+        <v>0.01773303878166924</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01773245582698483</v>
+        <v>-0.01773303878166924</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7674,13 +7674,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0178624315145533</v>
+        <v>0.01786299627421004</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.0178624315145533</v>
+        <v>-0.01786299627421004</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7695,13 +7695,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01582671110795298</v>
+        <v>0.01582722428436588</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01582671110795298</v>
+        <v>-0.01582722428436588</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7716,13 +7716,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01774829283189171</v>
+        <v>0.01774888194624188</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01774829283189171</v>
+        <v>-0.01774888194624188</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7737,13 +7737,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01806853118067492</v>
+        <v>0.01806908412955015</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01806853118067492</v>
+        <v>-0.01806908412955015</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7758,13 +7758,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01760057223401173</v>
+        <v>0.01760112737539016</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01760057223401173</v>
+        <v>-0.01760112737539016</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7779,13 +7779,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01688398614449566</v>
+        <v>0.01688454590584453</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01688398614449566</v>
+        <v>-0.01688454590584453</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7800,13 +7800,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01708371904669129</v>
+        <v>0.01708427303062176</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01708371904669129</v>
+        <v>-0.01708427303062176</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7821,13 +7821,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01913770780456306</v>
+        <v>0.01913832262485769</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01913770780456306</v>
+        <v>-0.01913832262485769</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7842,13 +7842,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01477761914444841</v>
+        <v>0.01474566076108697</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01477761914444841</v>
+        <v>-0.01474566076108697</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7863,13 +7863,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01596534666790325</v>
+        <v>0.0159658453543063</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01596534666790325</v>
+        <v>-0.0159658453543063</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7884,13 +7884,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01855483501555552</v>
+        <v>0.01855541289707191</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01855483501555552</v>
+        <v>-0.01855541289707191</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7905,13 +7905,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01694850069047277</v>
+        <v>0.01694904366964619</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01694850069047277</v>
+        <v>-0.01694904366964619</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7926,13 +7926,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02151835931502746</v>
+        <v>0.02151906069107638</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02151835931502746</v>
+        <v>-0.02151906069107638</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
